--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3109.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3109.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.925790012882475</v>
+        <v>1.35335373878479</v>
       </c>
       <c r="B1">
-        <v>2.140057607703</v>
+        <v>2.37708306312561</v>
       </c>
       <c r="C1">
-        <v>2.528441787523534</v>
+        <v>3.096477508544922</v>
       </c>
       <c r="D1">
-        <v>4.38014000620391</v>
+        <v>3.60206937789917</v>
       </c>
       <c r="E1">
-        <v>1.2926131631958</v>
+        <v>1.897168636322021</v>
       </c>
     </row>
   </sheetData>
